--- a/산출물/[2팀] WBS.xlsx
+++ b/산출물/[2팀] WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.219.50\Users\2팀공유\(예정)최종\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\collaboration_2\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F491E7-8AF9-4F63-9339-B64FFE9688A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B044CF16-3FC5-4E32-B170-3EDCCE5A267E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0105~0109" sheetId="1" r:id="rId1"/>
@@ -1647,24 +1647,6 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,6 +1665,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1690,12 +1678,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1717,6 +1699,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1992,24 +1992,24 @@
   <dimension ref="A1:U1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W43" sqref="W43"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="17" style="15" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="15" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="15" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="15" customWidth="1"/>
     <col min="8" max="8" width="14" style="15" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" style="15" customWidth="1"/>
-    <col min="12" max="16" width="4.6640625" style="15" customWidth="1"/>
-    <col min="17" max="18" width="8.88671875" style="15" customWidth="1"/>
-    <col min="19" max="16384" width="14.44140625" style="15"/>
+    <col min="9" max="9" width="14.140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="15" customWidth="1"/>
+    <col min="12" max="16" width="4.7109375" style="15" customWidth="1"/>
+    <col min="17" max="18" width="8.85546875" style="15" customWidth="1"/>
+    <col min="19" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="40.5" customHeight="1" thickBot="1">
@@ -2074,7 +2074,7 @@
       <c r="E3" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="113"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -2082,12 +2082,12 @@
       <c r="K3" s="1"/>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="109" t="s">
+      <c r="N3" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="111"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="107"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1">
@@ -2101,10 +2101,10 @@
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="112">
+      <c r="E4" s="103">
         <v>46031</v>
       </c>
-      <c r="F4" s="113"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="16"/>
       <c r="H4" s="44" t="s">
         <v>77</v>
@@ -2116,12 +2116,12 @@
       <c r="K4" s="1"/>
       <c r="L4" s="31"/>
       <c r="M4" s="32"/>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="111"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="107"/>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
@@ -2135,10 +2135,10 @@
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="112">
+      <c r="E5" s="103">
         <v>46031</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="16"/>
       <c r="H5" s="46" t="s">
         <v>78</v>
@@ -2148,16 +2148,16 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="116" t="s">
+      <c r="L5" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118" t="s">
+      <c r="M5" s="111"/>
+      <c r="N5" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="120"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="114"/>
       <c r="R5" s="1"/>
       <c r="T5" s="90"/>
       <c r="U5" s="91"/>
@@ -2173,10 +2173,10 @@
       <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="16"/>
       <c r="H6" s="93" t="s">
         <v>79</v>
@@ -2232,79 +2232,79 @@
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106" t="s">
+      <c r="G9" s="100"/>
+      <c r="H9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="106" t="s">
+      <c r="I9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="106" t="s">
+      <c r="J9" s="100" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="97" t="s">
+      <c r="L9" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="99"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
       <c r="K10" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="100" t="s">
+      <c r="L10" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="120"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
       <c r="K11" s="56" t="s">
         <v>28</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F15" s="59" t="s">
         <v>6</v>
@@ -3374,7 +3374,7 @@
         <v>66</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F46" s="71" t="s">
         <v>78</v>
@@ -22544,7 +22544,6 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
@@ -22560,6 +22559,7 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="L3:M3">
